--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Twitter" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SNS_画像数" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="SNS_投稿数" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="結果_全て" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="結果_動物" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="画像" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="SNS" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="アカウント" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="種類" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="カテゴリー" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="期間" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,27 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>photo</t>
   </si>
   <si>
     <t>カラム名</t>
   </si>
   <si>
-    <t>twitterID</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>photoID</t>
+  </si>
+  <si>
+    <t>photo_url</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>snsID</t>
+  </si>
+  <si>
+    <t>accountID</t>
   </si>
   <si>
     <t>データ型</t>
@@ -50,63 +54,109 @@
     <t>date</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>アカウント名</t>
+    <t>http://</t>
   </si>
   <si>
     <t>sns</t>
   </si>
   <si>
-    <t>snsID</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>resultID</t>
+    <t>snsName</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>account_url</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>kindID</t>
+  </si>
+  <si>
+    <t>kindName</t>
+  </si>
+  <si>
+    <t>kindPercentage</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>categoryID</t>
+  </si>
+  <si>
+    <t>termID</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>猫</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>percentage</t>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>categoryPercentage</t>
   </si>
   <si>
     <t>動物</t>
   </si>
   <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>animalID</t>
-  </si>
-  <si>
-    <t>犬</t>
+    <t>風景</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>termName</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -130,7 +180,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -158,6 +211,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -192,21 +249,27 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -215,13 +278,16 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>42348.0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -229,23 +295,36 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42347.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -264,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -272,68 +351,55 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4">
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>42348.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>2.0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -351,8 +417,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -360,106 +426,58 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>42348.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>2.0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -478,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -486,22 +504,51 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -509,31 +556,55 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.4</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>2.0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -541,6 +612,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="17.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>150000.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -552,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -560,53 +749,42 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -5,10 +5,9 @@
   <sheets>
     <sheet state="visible" name="画像" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="SNS" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="アカウント" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="種類" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="カテゴリー" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="期間" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="種類" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="カテゴリー" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="期間" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>テーブル名</t>
   </si>
@@ -30,16 +29,28 @@
     <t>photoID</t>
   </si>
   <si>
-    <t>photo_url</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>photoURL</t>
+  </si>
+  <si>
+    <t>postedDate</t>
   </si>
   <si>
     <t>snsID</t>
   </si>
   <si>
-    <t>accountID</t>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>画像の番号</t>
+  </si>
+  <si>
+    <t>画像のURL</t>
+  </si>
+  <si>
+    <t>投稿日</t>
+  </si>
+  <si>
+    <t>SNSの番号</t>
   </si>
   <si>
     <t>データ型</t>
@@ -63,18 +74,15 @@
     <t>snsName</t>
   </si>
   <si>
+    <t>SNS名</t>
+  </si>
+  <si>
     <t>Twitter</t>
   </si>
   <si>
     <t>Facebook</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>account_url</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
@@ -87,13 +95,31 @@
     <t>kindPercentage</t>
   </si>
   <si>
-    <t>contribution</t>
+    <t>postedNumber</t>
   </si>
   <si>
     <t>categoryID</t>
   </si>
   <si>
-    <t>termID</t>
+    <t>periodID</t>
+  </si>
+  <si>
+    <t>種類の番号</t>
+  </si>
+  <si>
+    <t>種類名</t>
+  </si>
+  <si>
+    <t>種類の割合</t>
+  </si>
+  <si>
+    <t>投稿数</t>
+  </si>
+  <si>
+    <t>カテゴリーの番号</t>
+  </si>
+  <si>
+    <t>期間の番号</t>
   </si>
   <si>
     <t>犬</t>
@@ -111,28 +137,40 @@
     <t>categoryPercentage</t>
   </si>
   <si>
+    <t>カテゴリー名</t>
+  </si>
+  <si>
+    <t>カテゴリーの割合</t>
+  </si>
+  <si>
     <t>動物</t>
   </si>
   <si>
     <t>風景</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>termName</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>period</t>
+  </si>
+  <si>
+    <t>periodType</t>
+  </si>
+  <si>
+    <t>期間のタイプ</t>
+  </si>
+  <si>
+    <t>全期間</t>
+  </si>
+  <si>
+    <t>直近1年</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -170,11 +208,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -214,10 +255,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -249,66 +286,73 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>42348.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42348.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
         <v>42347.0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
@@ -343,7 +387,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -354,43 +398,51 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
@@ -417,8 +469,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -426,58 +478,124 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>50000.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50000.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -485,133 +603,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -626,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -634,89 +625,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>200000.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200000.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
         <v>30.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="5">
         <v>150000.0</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
@@ -729,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -741,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -749,42 +760,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -161,7 +161,7 @@
     <t>全期間</t>
   </si>
   <si>
-    <t>直近1年</t>
+    <t>直近1年間</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -224,9 +224,6 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -258,7 +255,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
@@ -378,7 +380,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
@@ -461,7 +468,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
@@ -561,7 +573,7 @@
       <c r="D5" s="1">
         <v>40.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>50000.0</v>
       </c>
       <c r="F5" s="1">
@@ -584,7 +596,7 @@
       <c r="D6" s="1">
         <v>40.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>50000.0</v>
       </c>
       <c r="F6" s="1">
@@ -605,7 +617,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -699,7 +716,7 @@
       <c r="D5" s="1">
         <v>40.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>200000.0</v>
       </c>
       <c r="F5" s="1">
@@ -719,7 +736,7 @@
       <c r="D6" s="1">
         <v>30.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>150000.0</v>
       </c>
       <c r="F6" s="1">
@@ -743,7 +760,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>テーブル名</t>
   </si>
@@ -95,7 +95,7 @@
     <t>kindPercentage</t>
   </si>
   <si>
-    <t>postedNumber</t>
+    <t>kindPostedNumber</t>
   </si>
   <si>
     <t>categoryID</t>
@@ -113,7 +113,7 @@
     <t>種類の割合</t>
   </si>
   <si>
-    <t>投稿数</t>
+    <t>種類の投稿数</t>
   </si>
   <si>
     <t>カテゴリーの番号</t>
@@ -137,10 +137,16 @@
     <t>categoryPercentage</t>
   </si>
   <si>
+    <t>categoryPostedNumber</t>
+  </si>
+  <si>
     <t>カテゴリー名</t>
   </si>
   <si>
     <t>カテゴリーの割合</t>
+  </si>
+  <si>
+    <t>カテゴリーの投稿数</t>
   </si>
   <si>
     <t>動物</t>
@@ -476,6 +482,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="16.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -627,6 +636,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col customWidth="1" min="5" max="5" width="20.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +661,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -668,13 +678,13 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -711,7 +721,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>40.0</v>
@@ -731,7 +741,7 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>30.0</v>
@@ -774,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -785,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -797,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -818,7 +828,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -827,7 +837,7 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -355,7 +355,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>42347.0</v>
+        <v>42348.0</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -23,7 +23,7 @@
     <t>photo</t>
   </si>
   <si>
-    <t>カラム名</t>
+    <t>物理名</t>
   </si>
   <si>
     <t>photoID</t>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -7,7 +7,6 @@
     <sheet state="visible" name="SNS" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="種類" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="カテゴリー" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="期間" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>テーブル名</t>
   </si>
@@ -32,7 +31,7 @@
     <t>photoURL</t>
   </si>
   <si>
-    <t>postedDate</t>
+    <t>postedDatetime</t>
   </si>
   <si>
     <t>snsID</t>
@@ -47,7 +46,7 @@
     <t>画像のURL</t>
   </si>
   <si>
-    <t>投稿日</t>
+    <t>投稿日時</t>
   </si>
   <si>
     <t>SNSの番号</t>
@@ -62,7 +61,7 @@
     <t>varchar(255)</t>
   </si>
   <si>
-    <t>date</t>
+    <t>datetime</t>
   </si>
   <si>
     <t>http://</t>
@@ -95,15 +94,9 @@
     <t>kindPercentage</t>
   </si>
   <si>
-    <t>kindPostedNumber</t>
-  </si>
-  <si>
     <t>categoryID</t>
   </si>
   <si>
-    <t>periodID</t>
-  </si>
-  <si>
     <t>種類の番号</t>
   </si>
   <si>
@@ -113,15 +106,9 @@
     <t>種類の割合</t>
   </si>
   <si>
-    <t>種類の投稿数</t>
-  </si>
-  <si>
     <t>カテゴリーの番号</t>
   </si>
   <si>
-    <t>期間の番号</t>
-  </si>
-  <si>
     <t>犬</t>
   </si>
   <si>
@@ -137,37 +124,16 @@
     <t>categoryPercentage</t>
   </si>
   <si>
-    <t>categoryPostedNumber</t>
-  </si>
-  <si>
     <t>カテゴリー名</t>
   </si>
   <si>
     <t>カテゴリーの割合</t>
   </si>
   <si>
-    <t>カテゴリーの投稿数</t>
-  </si>
-  <si>
     <t>動物</t>
   </si>
   <si>
     <t>風景</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>periodType</t>
-  </si>
-  <si>
-    <t>期間のタイプ</t>
-  </si>
-  <si>
-    <t>全期間</t>
-  </si>
-  <si>
-    <t>直近1年間</t>
   </si>
 </sst>
 </file>
@@ -175,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -254,10 +220,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -269,6 +231,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="17.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -340,7 +305,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>42348.0</v>
+        <v>42358.99998842592</v>
       </c>
       <c r="E5" s="1">
         <v>1.0</v>
@@ -355,7 +320,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>42348.0</v>
+        <v>42358.99998842592</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
@@ -482,9 +447,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="5" max="5" width="16.71"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -508,43 +470,33 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -565,58 +517,43 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>40.0</v>
       </c>
       <c r="E5" s="1">
-        <v>50000.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>40.0</v>
       </c>
       <c r="E6" s="1">
-        <v>50000.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
       </c>
-      <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -636,7 +573,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="20.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -644,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -652,46 +588,36 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -709,136 +635,43 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>40.0</v>
       </c>
       <c r="E5" s="1">
-        <v>200000.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>30.0</v>
       </c>
       <c r="E6" s="1">
-        <v>150000.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
     </row>
     <row r="8">
       <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -5,8 +5,10 @@
   <sheets>
     <sheet state="visible" name="画像" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="SNS" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="種類" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="カテゴリー" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="認識" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="リスト" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="種類" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="カテゴリー" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>テーブル名</t>
   </si>
@@ -82,12 +84,168 @@
     <t>Facebook</t>
   </si>
   <si>
+    <t>recognition</t>
+  </si>
+  <si>
+    <t>recognitionID</t>
+  </si>
+  <si>
+    <t>result1</t>
+  </si>
+  <si>
+    <t>result2</t>
+  </si>
+  <si>
+    <t>result3</t>
+  </si>
+  <si>
+    <t>result4</t>
+  </si>
+  <si>
+    <t>result5</t>
+  </si>
+  <si>
+    <t>result6</t>
+  </si>
+  <si>
+    <t>result7</t>
+  </si>
+  <si>
+    <t>result8</t>
+  </si>
+  <si>
+    <t>result9</t>
+  </si>
+  <si>
+    <t>result10</t>
+  </si>
+  <si>
+    <t>result11</t>
+  </si>
+  <si>
+    <t>result12</t>
+  </si>
+  <si>
+    <t>result13</t>
+  </si>
+  <si>
+    <t>result14</t>
+  </si>
+  <si>
+    <t>result15</t>
+  </si>
+  <si>
+    <t>result16</t>
+  </si>
+  <si>
+    <t>result17</t>
+  </si>
+  <si>
+    <t>result18</t>
+  </si>
+  <si>
+    <t>result19</t>
+  </si>
+  <si>
+    <t>result20</t>
+  </si>
+  <si>
+    <t>画像認識の番号</t>
+  </si>
+  <si>
+    <t>認識結果1</t>
+  </si>
+  <si>
+    <t>認識結果2</t>
+  </si>
+  <si>
+    <t>認識結果3</t>
+  </si>
+  <si>
+    <t>認識結果4</t>
+  </si>
+  <si>
+    <t>認識結果5</t>
+  </si>
+  <si>
+    <t>認識結果6</t>
+  </si>
+  <si>
+    <t>認識結果7</t>
+  </si>
+  <si>
+    <t>認識結果8</t>
+  </si>
+  <si>
+    <t>認識結果9</t>
+  </si>
+  <si>
+    <t>認識結果10</t>
+  </si>
+  <si>
+    <t>認識結果11</t>
+  </si>
+  <si>
+    <t>認識結果12</t>
+  </si>
+  <si>
+    <t>認識結果13</t>
+  </si>
+  <si>
+    <t>認識結果14</t>
+  </si>
+  <si>
+    <t>認識結果15</t>
+  </si>
+  <si>
+    <t>認識結果16</t>
+  </si>
+  <si>
+    <t>認識結果17</t>
+  </si>
+  <si>
+    <t>認識結果18</t>
+  </si>
+  <si>
+    <t>認識結果19</t>
+  </si>
+  <si>
+    <t>認識結果20</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>listID</t>
+  </si>
+  <si>
+    <t>listName</t>
+  </si>
+  <si>
+    <t>kindID</t>
+  </si>
+  <si>
+    <t>リストの番号</t>
+  </si>
+  <si>
+    <t>リストの名前</t>
+  </si>
+  <si>
+    <t>種類の番号</t>
+  </si>
+  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>kindID</t>
-  </si>
-  <si>
     <t>kindName</t>
   </si>
   <si>
@@ -97,9 +255,6 @@
     <t>categoryID</t>
   </si>
   <si>
-    <t>種類の番号</t>
-  </si>
-  <si>
     <t>種類名</t>
   </si>
   <si>
@@ -109,12 +264,6 @@
     <t>カテゴリーの番号</t>
   </si>
   <si>
-    <t>犬</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -130,10 +279,28 @@
     <t>カテゴリーの割合</t>
   </si>
   <si>
-    <t>動物</t>
-  </si>
-  <si>
     <t>風景</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>食品・料理</t>
+  </si>
+  <si>
+    <t>絵・図</t>
+  </si>
+  <si>
+    <t>乗り物</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>未定義</t>
   </si>
 </sst>
 </file>
@@ -143,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -151,7 +318,14 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -180,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -194,7 +368,16 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -204,6 +387,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -220,7 +407,11 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -348,6 +539,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -364,8 +643,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -373,26 +652,148 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -404,14 +805,86 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="W5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,17 +892,18 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="W6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -453,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -461,42 +935,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -505,55 +969,40 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -561,6 +1010,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -580,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -588,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -606,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -626,7 +1199,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -641,11 +1214,11 @@
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="1">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E5" s="1">
         <v>1.0</v>
@@ -656,11 +1229,11 @@
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="1">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
@@ -668,10 +1241,102 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sns_DB定義.xlsx
+++ b/sns_DB定義.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="画像" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SNS" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="SNS" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="画像" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="認識" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="リスト" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="種類" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="計算" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="カテゴリー" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="種類" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,17 +17,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>テーブル名</t>
   </si>
   <si>
+    <t>sns</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>snsID</t>
+  </si>
+  <si>
+    <t>snsName</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>SNSの番号</t>
+  </si>
+  <si>
+    <t>SNS名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>物理名</t>
-  </si>
-  <si>
     <t>photoID</t>
   </si>
   <si>
@@ -36,12 +70,6 @@
     <t>postedDatetime</t>
   </si>
   <si>
-    <t>snsID</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
     <t>画像の番号</t>
   </si>
   <si>
@@ -51,39 +79,12 @@
     <t>投稿日時</t>
   </si>
   <si>
-    <t>SNSの番号</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
     <t>http://</t>
   </si>
   <si>
-    <t>sns</t>
-  </si>
-  <si>
-    <t>snsName</t>
-  </si>
-  <si>
-    <t>SNS名</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>recognition</t>
   </si>
   <si>
@@ -219,88 +220,118 @@
     <t>動物</t>
   </si>
   <si>
+    <t>・・・</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>葉</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>listID</t>
+  </si>
+  <si>
+    <t>listName</t>
+  </si>
+  <si>
+    <t>listKind</t>
+  </si>
+  <si>
+    <t>listCategory</t>
+  </si>
+  <si>
+    <t>リストの番号</t>
+  </si>
+  <si>
+    <t>リストの名前</t>
+  </si>
+  <si>
+    <t>種類名</t>
+  </si>
+  <si>
+    <t>カテゴリー名</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>風景</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>calcID</t>
+  </si>
+  <si>
+    <t>calcKind</t>
+  </si>
+  <si>
+    <t>calcCategory</t>
+  </si>
+  <si>
+    <t>計算の番号</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>categoryID</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>categoryPercentage</t>
+  </si>
+  <si>
+    <t>カテゴリーの番号</t>
+  </si>
+  <si>
+    <t>カテゴリーの割合</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>食品・料理</t>
+  </si>
+  <si>
+    <t>絵・図</t>
+  </si>
+  <si>
+    <t>乗り物</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>kindID</t>
+  </si>
+  <si>
+    <t>kindName</t>
+  </si>
+  <si>
+    <t>kindPercentage</t>
+  </si>
+  <si>
+    <t>種類の番号</t>
+  </si>
+  <si>
+    <t>種類の割合</t>
+  </si>
+  <si>
     <t>猫</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>listID</t>
-  </si>
-  <si>
-    <t>listName</t>
-  </si>
-  <si>
-    <t>kindID</t>
-  </si>
-  <si>
-    <t>リストの番号</t>
-  </si>
-  <si>
-    <t>リストの名前</t>
-  </si>
-  <si>
-    <t>種類の番号</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>kindName</t>
-  </si>
-  <si>
-    <t>kindPercentage</t>
-  </si>
-  <si>
-    <t>categoryID</t>
-  </si>
-  <si>
-    <t>種類名</t>
-  </si>
-  <si>
-    <t>種類の割合</t>
-  </si>
-  <si>
-    <t>カテゴリーの番号</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>categoryPercentage</t>
-  </si>
-  <si>
-    <t>カテゴリー名</t>
-  </si>
-  <si>
-    <t>カテゴリーの割合</t>
-  </si>
-  <si>
-    <t>風景</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>食品・料理</t>
-  </si>
-  <si>
-    <t>絵・図</t>
-  </si>
-  <si>
-    <t>乗り物</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>未定義</t>
   </si>
 </sst>
 </file>
@@ -361,10 +392,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -411,7 +442,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -431,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -439,52 +562,52 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -493,9 +616,9 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
         <v>42358.99998842592</v>
       </c>
       <c r="E5" s="1">
@@ -508,9 +631,9 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
         <v>42358.99998842592</v>
       </c>
       <c r="E6" s="1">
@@ -533,94 +656,6 @@
     <row r="10">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -715,15 +750,15 @@
         <v>43</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
@@ -789,84 +824,84 @@
         <v>64</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +914,9 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="W5" s="1">
         <v>1.0</v>
       </c>
@@ -892,12 +929,14 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1"/>
       <c r="W6" s="1">
         <v>1.0</v>
       </c>
@@ -927,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -935,47 +974,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
@@ -985,10 +1030,12 @@
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
@@ -996,13 +1043,18 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1026,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1034,63 +1086,60 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
@@ -1099,8 +1148,8 @@
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="1">
-        <v>40.0</v>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="1">
         <v>1.0</v>
@@ -1108,25 +1157,23 @@
       <c r="F5" s="1">
         <v>1.0</v>
       </c>
-      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40.0</v>
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1153,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -1161,52 +1208,52 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1215,7 +1262,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>30.0</v>
@@ -1230,7 +1277,7 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>20.0</v>
@@ -1245,7 +1292,7 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1">
         <v>10.0</v>
@@ -1259,7 +1306,7 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>10.0</v>
@@ -1287,7 +1334,7 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
         <v>10.0</v>
@@ -1301,7 +1348,7 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>10.0</v>
@@ -1315,7 +1362,7 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1">
         <v>0.0</v>
@@ -1325,18 +1372,134 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
